--- a/DATA/DATA.xlsx
+++ b/DATA/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos GIT\Telcel\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FDEFBF-4AA4-4DF7-9E8C-09777C236AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA76C595-CB55-4AD3-B786-56470AFEAFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DFE44B3-4178-491B-BFCA-34C296F79613}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="20976" windowHeight="10596" xr2:uid="{6DFE44B3-4178-491B-BFCA-34C296F79613}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>${User}</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>OS8RECO7</t>
+  </si>
+  <si>
+    <t>Dr9Rec@ll60</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/DATA.xlsx
+++ b/DATA/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos GIT\Telcel\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA76C595-CB55-4AD3-B786-56470AFEAFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB582A-D563-4C7D-B910-928F58F4AD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="20976" windowHeight="10596" xr2:uid="{6DFE44B3-4178-491B-BFCA-34C296F79613}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>${User}</t>
   </si>
@@ -60,13 +60,25 @@
   </si>
   <si>
     <t>Dr9Rec@ll60</t>
+  </si>
+  <si>
+    <t>${UserCotizador}</t>
+  </si>
+  <si>
+    <t>${PasswordCotizador}</t>
+  </si>
+  <si>
+    <t>JE7LMVA7</t>
+  </si>
+  <si>
+    <t>N=o6t=*7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +93,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF174AD4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,9 +123,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -424,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEE990D-63AA-486E-954A-8E1AE668DA00}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +466,14 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -458,6 +485,12 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -466,5 +499,6 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{86ABA69C-CDD2-4013-B645-425A9A35265B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>